--- a/web/uploads/score.xlsx
+++ b/web/uploads/score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\sv_dkhp_docker_local\web\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="A3:J4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>19524792</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -440,6 +440,70 @@
         <v>9</v>
       </c>
       <c r="J2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19524793</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>19524794</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
         <v>8</v>
       </c>
     </row>
